--- a/Exponent Table.xlsx
+++ b/Exponent Table.xlsx
@@ -16,18 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>assembly</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>C program</t>
   </si>
   <si>
     <t>actual value</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>22026.464844                                                 </t>
+  </si>
+  <si>
+    <t>162754.796875     </t>
+  </si>
+  <si>
+    <t>485165184                                 </t>
+  </si>
+  <si>
+    <t>input x</t>
+  </si>
+  <si>
+    <t>ARM assembly</t>
   </si>
 </sst>
 </file>
@@ -63,8 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,6 +91,242 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.71828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3890599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.597900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.40299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>403.428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8099.52</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>21950.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>162753</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1202440</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>8876060</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>65269700</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>474580000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="193515520"/>
+        <c:axId val="193517440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="193515520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> X</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193517440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193517440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Magnitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193515520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,162 +616,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2.71828</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>2.718</v>
+      </c>
+      <c r="D2">
+        <v>2.71828</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>7.3890599999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>7.3887130000000001</v>
+      </c>
+      <c r="D3">
+        <v>7.3891</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>20.0855</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>20.066393000000001</v>
+      </c>
+      <c r="D4">
+        <v>20.0855</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>54.597900000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>54.598148000000002</v>
+      </c>
+      <c r="D5">
+        <v>54.598199999999999</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>148.40299999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>148.41309999999999</v>
+      </c>
+      <c r="D6">
+        <v>148.41319999999999</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>403.428</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>403.428</v>
+      </c>
+      <c r="D7">
+        <v>403.42880000000002</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1096.6199999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>1096.6331</v>
+      </c>
+      <c r="D8">
+        <v>1096.6332</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2980.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>2980.9580000000001</v>
+      </c>
+      <c r="D9">
+        <v>2980.9580000000001</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>8099.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8103.0838999999996</v>
+      </c>
+      <c r="D10">
+        <v>8103.0838999999996</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>21950.400000000001</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>162753</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>162754.79139999999</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1202440</v>
+      </c>
+      <c r="C13">
+        <v>1202604.25</v>
+      </c>
+      <c r="D13">
+        <v>1202604.2842000001</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8876060</v>
+      </c>
+      <c r="C14">
+        <v>8886111</v>
+      </c>
+      <c r="D14">
+        <v>8886110.5205000006</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>65269700</v>
+      </c>
+      <c r="C15">
+        <v>65659968</v>
+      </c>
+      <c r="D15">
+        <v>65659969.1373</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>474580000</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>485165195.40979999</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="C17">
+        <v>72004902912</v>
+      </c>
+      <c r="D17">
+        <v>72004899337.385895</v>
+      </c>
+      <c r="F17">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Exponent Table.xlsx
+++ b/Exponent Table.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>C program</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>ARM assembly</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>.#INF</t>
   </si>
 </sst>
 </file>
@@ -91,242 +97,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM assembly</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.71828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3890599999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.597900000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>148.40299999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>403.428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1096.6199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2980.68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8099.52</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>21950.400000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>162753</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1202440</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>8876060</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>65269700</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>474580000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="193515520"/>
-        <c:axId val="193517440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="193515520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>input</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" baseline="0"/>
-                  <a:t> X</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193517440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="193517440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Magnitude</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193515520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,18 +386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -643,8 +414,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -660,8 +434,12 @@
       <c r="F2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>B2-C2</f>
+        <v>2.8000000000005798E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -677,8 +455,12 @@
       <c r="F3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f>B3-C3</f>
+        <v>3.4699999999965314E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,8 +476,12 @@
       <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f>B4-C4</f>
+        <v>1.9106999999998209E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -711,8 +497,12 @@
       <c r="F5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f>B5-C5</f>
+        <v>-2.479999999991378E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -728,8 +518,12 @@
       <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f>B6-C6</f>
+        <v>-1.0099999999994225E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -745,8 +539,12 @@
       <c r="F7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f>B7-C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -762,8 +560,12 @@
       <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f>B8-C8</f>
+        <v>-1.3100000000122236E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -779,8 +581,12 @@
       <c r="F9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f>B9-C9</f>
+        <v>-0.27800000000024738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -796,8 +602,12 @@
       <c r="F10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f>B10-C10</f>
+        <v>-3.5638999999991938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -813,8 +623,12 @@
       <c r="F11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="e">
+        <f>B11-C11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -830,8 +644,12 @@
       <c r="F12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="e">
+        <f>B12-C12</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>14</v>
       </c>
@@ -847,8 +665,12 @@
       <c r="F13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <f>B13-C14</f>
+        <v>-7683671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16</v>
       </c>
@@ -864,8 +686,12 @@
       <c r="F14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <f>B15-C15</f>
+        <v>-390268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18</v>
       </c>
@@ -881,8 +707,12 @@
       <c r="F15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="e">
+        <f>B16-C16</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>20</v>
       </c>
@@ -897,12 +727,19 @@
       </c>
       <c r="F16">
         <v>30</v>
+      </c>
+      <c r="G16" s="1" t="e">
+        <f>B16-C16</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>25</v>
       </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
       <c r="C17">
         <v>72004902912</v>
       </c>
@@ -916,7 +753,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
